--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">SEO Faciliter le crawling</t>
   </si>
   <si>
-    <t xml:space="preserve">Présence de lien pointant cers ‘’index.html’’</t>
+    <t xml:space="preserve">Présence de lien pointant vers ‘’index.html’’</t>
   </si>
   <si>
     <t xml:space="preserve">Google peut interpréter cette page comme étant une page différente, risquant donc de la dupliquer</t>
@@ -142,7 +142,7 @@
     <t xml:space="preserve">Rajouter les balises sémantique</t>
   </si>
   <si>
-    <t xml:space="preserve">SEO</t>
+    <t xml:space="preserve">SEO – Vitesse du site</t>
   </si>
   <si>
     <t xml:space="preserve">Certaine images ne semble pas être de la même taille que leur contenant</t>
@@ -166,6 +166,18 @@
     <t xml:space="preserve">Compresser les images</t>
   </si>
   <si>
+    <t xml:space="preserve">Le cache du site est paramétré sur 10 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le cache est paramétré sur 10 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour une page de présentation tel que le site, il est généralement préconisé une durée de 1 an pour le cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augmenter la durée du cache sur 1 an</t>
+  </si>
+  <si>
     <t xml:space="preserve">Le code HTML, CSS et quelque JS ne sont pas minifiés</t>
   </si>
   <si>
@@ -233,6 +245,39 @@
   </si>
   <si>
     <t xml:space="preserve">Supprimer les liens vers les annuaires, et rechercher des partemaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO – Mot Clé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre des mot clés dans la description, titre etc..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les mots clés sont caché en blanc sur fond blanc, ce qui en fait des éléments black-hat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il est essentiel de faire apparaître les mots clés dans le texte présent dans le site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placé les mots clés le plus souvent possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO – BACKLINK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO – Contenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réaliser du contenu (actualité, projet réalisé ou à venir, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le site n’évoluera pas si du contenu n’est pas rajouter au fur et à mesure de l’évolution de la boite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les moteurs de recherche priviligie les sites mis à jours régulièrement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer des section comme ‘actualités’ par exemple</t>
   </si>
 </sst>
 </file>
@@ -289,7 +334,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +345,54 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D1D5"/>
+        <bgColor rgb="FFFFD8CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEDCE6"/>
+        <bgColor rgb="FFDEE6EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFF7D1D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFDEE6EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3CAC7"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFDEDCE6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFD8CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -337,7 +430,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -350,15 +443,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -366,36 +463,92 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -423,16 +576,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3CAC7"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF7030A0"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFFFF5CE"/>
+      <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDEDCE6"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -443,12 +596,12 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFDDE8CB"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFF7D1D5"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -475,13 +628,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.34765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.35"/>
@@ -536,265 +689,326 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="6"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="6"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" customFormat="false" ht="67.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+    <row r="15" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C15" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D15" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="5" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="B17" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="D17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="E17" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="B19" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C19" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D19" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E19" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="4" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+    </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1768,13 +1982,13 @@
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Utiliser une balise canonique</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom de la page 2 n’est pas pertinent</t>
+    <t xml:space="preserve">Nom de la page 2 n’est pas adéquat</t>
   </si>
   <si>
     <t xml:space="preserve">Le nom ‘’Page2’’ n’indique rien sur le contenu de la page</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">Balise ‘’alt ‘’ mal remplie</t>
   </si>
   <si>
-    <t xml:space="preserve">Ici il n’y a pas de description de l’image, mais juste une juxtaposition de mots</t>
+    <t xml:space="preserve">Ici il n’y a pas de description la l’image, mais juste une juxtaposition de mots</t>
   </si>
   <si>
     <t xml:space="preserve">Décrire l’image afin de permettre une meilleur visualisation par les malvoyants</t>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t xml:space="preserve">SEO – BACKLINK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de balise meta pour les réseaux sociaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de balise meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permet d’améliorer les backlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les ajouter</t>
   </si>
   <si>
     <t xml:space="preserve">SEO – Contenu</t>
@@ -334,7 +346,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +379,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFF5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFB3CAC7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFD8CE"/>
         <bgColor rgb="FFF7D1D5"/>
       </patternFill>
@@ -380,7 +404,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB3CAC7"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -430,7 +454,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -507,47 +531,55 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -598,7 +630,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FFFFD8CE"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FFF7D1D5"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFDBB6"/>
@@ -630,11 +662,11 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.34765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.37109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.35"/>
@@ -889,124 +921,132 @@
       <c r="A17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="24" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="29" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="B26" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="29" t="s">
+      <c r="A28" s="31" t="s">
         <v>85</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Indiquer la ou les langues à utiliser </t>
   </si>
   <si>
-    <t xml:space="preserve">indiquer ‘’lang=french’’</t>
+    <t xml:space="preserve">indiquer ‘’lang=fr’’</t>
   </si>
   <si>
     <t xml:space="preserve">Balise ‘’title’’ nom remplie</t>
@@ -196,7 +196,7 @@
     <t xml:space="preserve">Les script JS ne possède pas d’attribut</t>
   </si>
   <si>
-    <t xml:space="preserve">Les sript ici se lance en même temps que la page</t>
+    <t xml:space="preserve">Les script ici se lance en même temps que la page</t>
   </si>
   <si>
     <t xml:space="preserve">Ici le JS est à but cosmétique, il faut donc mieux retarder son lancement</t>
@@ -229,7 +229,7 @@
     <t xml:space="preserve">Cette pratique est considérer comme du black-hat, car elle cherche à tromper les moteurs de recherche, et donc punir le site au niveau du référencement</t>
   </si>
   <si>
-    <t xml:space="preserve">Risuque de blacklist par google</t>
+    <t xml:space="preserve">Risque de blacklist par google</t>
   </si>
   <si>
     <t xml:space="preserve">Supprimer cette balise avec ces mots clès</t>
@@ -662,11 +662,11 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.37109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.35"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -662,11 +662,11 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.35"/>
